--- a/data/data_summary.xlsx
+++ b/data/data_summary.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Projects/CPXC/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-40" yWindow="760" windowWidth="24040" windowHeight="11580" tabRatio="146"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Dataset</t>
   </si>
@@ -69,35 +78,29 @@
   </si>
   <si>
     <t>Hepatitis</t>
+  </si>
+  <si>
+    <t>SVM(Linear)</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>NN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +112,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -117,72 +120,309 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.5204081632653"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="3" width="11.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -201,192 +441,291 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>583</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="1">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.4425</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.31730000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>150</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="1">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>690</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="1">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.1406</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.1681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>435</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="1">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>798</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="1">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>768</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="1">
+        <v>0.2253</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.24610000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>990</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="1">
+        <v>0.1051</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="J8" s="1">
+        <v>7.17E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>3772</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="1">
+        <v>3.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>155</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -394,10 +733,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/data/data_summary.xlsx
+++ b/data/data_summary.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Projects/CPXC/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="146"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Dataset</t>
   </si>
@@ -81,37 +90,30 @@
   </si>
   <si>
     <t>Hepatitis</t>
+  </si>
+  <si>
+    <t>P-NBC</t>
+  </si>
+  <si>
+    <t>P-SVM</t>
+  </si>
+  <si>
+    <t>P-NN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +125,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -131,80 +133,308 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.8265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="11.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="15.3367346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="12.8316326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="2" width="8.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="1" width="8.8265306122449"/>
+    <col min="1" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="10" width="8.83203125" style="2"/>
+    <col min="11" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -235,326 +465,358 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>583</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="0"/>
-      <c r="G2" s="2" t="n">
-        <v>0.2882</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0.3053</v>
-      </c>
-      <c r="I2" s="2" t="n">
+      <c r="F2"/>
+      <c r="G2" s="2">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="I2" s="2">
         <v>0.4425</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>0.3173</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J2" s="2">
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="L2" s="1">
+        <v>30.24</v>
+      </c>
+      <c r="M2" s="1">
+        <v>30.58</v>
+      </c>
+      <c r="N2" s="1">
+        <v>30.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>150</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="0"/>
-      <c r="G3" s="2" t="n">
-        <v>0.0333</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0.0467</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="F3"/>
+      <c r="G3" s="2">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="I3" s="2">
         <v>0.04</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>0.0267</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J3" s="2">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2.67</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>690</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="0"/>
-      <c r="G4" s="2" t="n">
-        <v>0.1609</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="F4"/>
+      <c r="G4" s="2">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="H4" s="2">
         <v>0.1406</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>0.2232</v>
-      </c>
-      <c r="J4" s="2" t="n">
+      <c r="I4" s="2">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.1681</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1">
+        <v>40.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>435</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0.0391</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.0368</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.0529</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>798</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0.1314</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.0501</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.2038</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.0189</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="2">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>768</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="2">
         <v>0.2253</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.237</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.2461</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="2">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.24610000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>990</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="2">
         <v>0.1051</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0.0162</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.0717</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="2">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7.17E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>3772</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0.0308</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0.0151</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.0732</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.0276</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="2">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>0.0702</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="G10" s="2">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.1404</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="2">
         <v>0.1053</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>0.1404</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>155</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="2">
         <v>0.1484</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.1548</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.1548</v>
-      </c>
-      <c r="J11" s="2" t="n">
+      <c r="H11" s="2">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="J11" s="2">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/data/data_summary.xlsx
+++ b/data/data_summary.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Projects/CPXC/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="146"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="146"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Dataset</t>
   </si>
@@ -56,30 +46,39 @@
     <t>NN</t>
   </si>
   <si>
+    <t>P-NBC</t>
+  </si>
+  <si>
+    <t>P-SVM</t>
+  </si>
+  <si>
+    <t>P-NN</t>
+  </si>
+  <si>
     <t>ILPD</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Iris</t>
   </si>
   <si>
     <t>Credit-a</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Votes</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Anneal</t>
   </si>
   <si>
     <t>Diabetes</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Vowel</t>
   </si>
   <si>
@@ -92,16 +91,13 @@
     <t>Hepatitis</t>
   </si>
   <si>
-    <t>P-NBC</t>
-  </si>
-  <si>
-    <t>P-SVM</t>
-  </si>
-  <si>
-    <t>P-NN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Impact of min support</t>
+  </si>
+  <si>
+    <t>Impact of growth ratio</t>
   </si>
 </sst>
 </file>
@@ -136,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,18 +140,661 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Credit</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$18:$O$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.22778333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22028333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23746666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20120000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Diabetes</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.26136666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27428333333333338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27918333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28292499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Hepatitis</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$38:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.18806666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18916666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18923333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19263333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21626666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ILPD</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$38:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29451666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="42677376"/>
+        <c:axId val="42679680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="42677376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42679680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42679680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42677376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Credit</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$32:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.20814000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19884000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19012000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Diabetes</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$32:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$19:$P$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.27992499999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26492499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27956000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27246000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28573999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28588000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Hepatitis</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$32:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$32:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.18292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21268000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18326000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ILPD</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$32:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$32:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.29200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30577500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30671999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29886000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30863999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="42785408"/>
+        <c:axId val="42791296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="42785408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42791296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="42791296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42785408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -169,44 +808,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -236,12 +875,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -280,161 +919,191 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK11"/>
+  <dimension ref="A1:AMK65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="10" width="8.83203125" style="2"/>
-    <col min="11" max="1025" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="7.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="14" width="8.85546875" style="2"/>
+    <col min="15" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,19 +1134,19 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>583</v>
@@ -491,7 +1160,9 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G2" s="2">
         <v>0.28820000000000001</v>
       </c>
@@ -504,19 +1175,19 @@
       <c r="J2" s="2">
         <v>0.31730000000000003</v>
       </c>
-      <c r="L2" s="1">
-        <v>30.24</v>
-      </c>
-      <c r="M2" s="1">
-        <v>30.58</v>
-      </c>
-      <c r="N2" s="1">
-        <v>30.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L2" s="2">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.27829999999999999</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.27479999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>150</v>
@@ -530,7 +1201,9 @@
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G3" s="2">
         <v>3.3300000000000003E-2</v>
       </c>
@@ -543,19 +1216,19 @@
       <c r="J3" s="2">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="L3" s="1">
-        <v>6.67</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.67</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L3" s="2">
+        <v>5.33E-2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2.6700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>690</v>
@@ -569,7 +1242,9 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="2">
         <v>0.16089999999999999</v>
       </c>
@@ -582,16 +1257,19 @@
       <c r="J4" s="2">
         <v>0.1681</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="1">
-        <v>40.29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L4" s="2">
+        <v>0.1391</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.1623</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.1913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>435</v>
@@ -606,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
         <v>3.9100000000000003E-2</v>
@@ -620,10 +1298,19 @@
       <c r="J5" s="2">
         <v>5.2900000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L5" s="2">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.0500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>798</v>
@@ -638,7 +1325,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2">
         <v>0.13139999999999999</v>
@@ -652,10 +1339,19 @@
       <c r="J6" s="2">
         <v>1.89E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L6" s="2">
+        <v>0.1333</v>
+      </c>
+      <c r="M6" s="2">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1">
         <v>768</v>
@@ -670,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2">
         <v>0.2253</v>
@@ -684,10 +1380,19 @@
       <c r="J7" s="2">
         <v>0.24610000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L7" s="2">
+        <v>0.23860000000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>990</v>
@@ -702,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2">
         <v>0.1051</v>
@@ -716,10 +1421,19 @@
       <c r="J8" s="2">
         <v>7.17E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L8" s="2">
+        <v>0.5091</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.62929999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>3772</v>
@@ -734,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2">
         <v>3.0800000000000001E-2</v>
@@ -748,10 +1462,19 @@
       <c r="J9" s="2">
         <v>2.76E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L9" s="2">
+        <v>0.1981</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6.13E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <v>6.13E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>57</v>
@@ -766,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2">
         <v>7.0199999999999999E-2</v>
@@ -780,10 +1503,19 @@
       <c r="J10" s="2">
         <v>0.1404</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="L10" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="M10" s="2">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <v>8.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>155</v>
@@ -798,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2">
         <v>0.1484</v>
@@ -812,13 +1544,812 @@
       <c r="J11" s="2">
         <v>0.2</v>
       </c>
+      <c r="L11" s="2">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.1696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.187</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.19570000000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.21740000000000001</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.1812</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="G19" s="2">
+        <f>AVERAGE(B19:F19)</f>
+        <v>0.20814000000000005</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.2671</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2">
+        <f>AVERAGE(K19:O19)</f>
+        <v>0.27992499999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.19570000000000001</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.20430000000000001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.1812</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ref="G20:G24" si="0">AVERAGE(B20:F20)</f>
+        <v>0.19884000000000002</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20" s="2">
+        <f t="shared" ref="P20:P24" si="1">AVERAGE(K20:O20)</f>
+        <v>0.26492499999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.2014</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.2014</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.1754</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.1623</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19012000000000001</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27956000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.24490000000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.26519999999999999</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.26960000000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.25940000000000002</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.2908</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.29980000000000001</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="1"/>
+        <v>0.27246000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.2681</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.2261</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.32029999999999997</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24899999999999997</v>
+      </c>
+      <c r="J23" s="1">
+        <v>30</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.3221</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28573999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.27829999999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.29709999999999998</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.23619999999999999</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26754</v>
+      </c>
+      <c r="J24" s="1">
+        <v>50</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.3221</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.2334</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="1"/>
+        <v>0.28588000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <f>AVERAGE(B19:B24)</f>
+        <v>0.22778333333333334</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:F25" si="2">AVERAGE(C19:C24)</f>
+        <v>0.22028333333333336</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.24129999999999999</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23746666666666669</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20120000000000002</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="2">
+        <f>AVERAGE(K19:K24)</f>
+        <v>0.26136666666666669</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" ref="L25" si="3">AVERAGE(L19:L24)</f>
+        <v>0.27428333333333338</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" ref="M25" si="4">AVERAGE(M19:M24)</f>
+        <v>0.27918333333333334</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" ref="N25" si="5">AVERAGE(N19:N24)</f>
+        <v>0.29615000000000002</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" ref="O25" si="6">AVERAGE(O19:O24)</f>
+        <v>0.28292499999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="G32" s="2">
+        <f>AVERAGE(B32:F32)</f>
+        <v>0.18292</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.27829999999999999</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.28170000000000001</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.32290000000000002</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2">
+        <f>AVERAGE(K32:O32)</f>
+        <v>0.29200000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.2392</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" ref="G33:G37" si="7">AVERAGE(B33:F33)</f>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="J33" s="1">
+        <v>7</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.3196</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.31269999999999998</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.30570000000000003</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33" s="2">
+        <f t="shared" ref="P33:P37" si="8">AVERAGE(K33:O33)</f>
+        <v>0.30577500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.1946</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.1946</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.1946</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="7"/>
+        <v>0.21268000000000004</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.3145</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.3196</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.3246</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2">
+        <f t="shared" si="8"/>
+        <v>0.31095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>20</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.1946</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.1817</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.18790000000000001</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.1812</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.1946</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.188</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1">
+        <v>20</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.31769999999999998</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30671999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.1817</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.1883</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.1696</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.1946</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.18326000000000001</v>
+      </c>
+      <c r="J36" s="1">
+        <v>30</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.31269999999999998</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="8"/>
+        <v>0.29886000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>50</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.1817</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.17580000000000001</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.19108</v>
+      </c>
+      <c r="J37" s="1">
+        <v>50</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.29349999999999998</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.31759999999999999</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="8"/>
+        <v>0.30863999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2">
+        <f>AVERAGE(B32:B37)</f>
+        <v>0.18806666666666669</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" ref="C38" si="9">AVERAGE(C32:C37)</f>
+        <v>0.18916666666666668</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38" si="10">AVERAGE(D32:D37)</f>
+        <v>0.18923333333333334</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" ref="E38" si="11">AVERAGE(E32:E37)</f>
+        <v>0.19263333333333332</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" ref="F38" si="12">AVERAGE(F32:F37)</f>
+        <v>0.21626666666666663</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="2">
+        <f>AVERAGE(K32:K37)</f>
+        <v>0.30545</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" ref="L38" si="13">AVERAGE(L32:L37)</f>
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" ref="M38" si="14">AVERAGE(M32:M37)</f>
+        <v>0.318</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" ref="N38" si="15">AVERAGE(N32:N37)</f>
+        <v>0.29451666666666665</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" ref="O38" si="16">AVERAGE(O32:O37)</f>
+        <v>0.2908</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="K65:O65"/>
+  </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>